--- a/Tutorials/source_files_aug2/plotdata.xlsx
+++ b/Tutorials/source_files_aug2/plotdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hindologeorge-williams/OneDrive - Nexus365/We Yone Python Club/Code/Python/source_files_aug2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BC56262-518E-F443-B98E-E444F275E3BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CB640BA-451B-B94C-9989-EA9E719D3C89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{E59B6BD4-5C56-C84E-9736-7F8F6F92D37E}"/>
   </bookViews>
@@ -66,12 +66,6 @@
     <t>Average Monthly Earning</t>
   </si>
   <si>
-    <t xml:space="preserve">Name </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Date of Birth</t>
-  </si>
-  <si>
     <t>Musa</t>
   </si>
   <si>
@@ -106,6 +100,12 @@
   </si>
   <si>
     <t>Fadiru</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
   </si>
 </sst>
 </file>
@@ -588,7 +588,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -598,15 +598,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>36570</v>
@@ -614,101 +614,101 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <f ca="1">B2+RAND()*100</f>
-        <v>36571.198986444804</v>
+        <v>36579.579926090461</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" ref="B4:B13" ca="1" si="0">B3+RAND()*100</f>
-        <v>36605.731306406888</v>
+        <v>36661.183017889969</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36668.558304545397</v>
+        <v>36723.290440003417</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36762.649612349262</v>
+        <v>36814.5492531235</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36824.393200882951</v>
+        <v>36824.41354423311</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36922.926972498863</v>
+        <v>36921.537065475939</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36932.335735848239</v>
+        <v>36988.59646048626</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36933.409283541849</v>
+        <v>37036.78801422962</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36990.038967580469</v>
+        <v>37076.871160937553</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37030.738085377416</v>
+        <v>37114.799003427972</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37071.689790496384</v>
+        <v>37136.60004723852</v>
       </c>
     </row>
   </sheetData>
